--- a/pred_ohlcv/54_23/2019-10-17 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-17 FNB ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -668,7 +668,7 @@
         <v>47</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -875,7 +875,7 @@
         <v>47.5</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -898,7 +898,7 @@
         <v>47.9</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         <v>48.7</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -990,7 +990,7 @@
         <v>49.8</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1013,7 +1013,7 @@
         <v>49.2</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -1059,7 +1059,7 @@
         <v>48.2</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -1082,7 +1082,7 @@
         <v>48.3</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -1450,7 +1450,7 @@
         <v>48.5</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -1473,7 +1473,7 @@
         <v>48.1</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -1726,7 +1726,7 @@
         <v>49.8</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -1749,7 +1749,7 @@
         <v>49.8</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -1772,7 +1772,7 @@
         <v>49.4</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -1910,7 +1910,7 @@
         <v>49.4</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -1933,7 +1933,7 @@
         <v>49.4</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -1956,7 +1956,7 @@
         <v>49.1</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -1979,7 +1979,7 @@
         <v>49.1</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -2002,7 +2002,7 @@
         <v>49.5</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -2025,7 +2025,7 @@
         <v>49.5</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -2048,7 +2048,7 @@
         <v>49.7</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -2071,7 +2071,7 @@
         <v>49.3</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -2094,7 +2094,7 @@
         <v>49.6</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -4167,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -4325,10 +4325,10 @@
         <v>45.8</v>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -4348,10 +4348,10 @@
         <v>46.3</v>
       </c>
       <c r="F173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -4463,10 +4463,10 @@
         <v>45.6</v>
       </c>
       <c r="F178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -4486,10 +4486,10 @@
         <v>45.3</v>
       </c>
       <c r="F179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -4509,10 +4509,10 @@
         <v>45.5</v>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -4532,10 +4532,10 @@
         <v>45.5</v>
       </c>
       <c r="F181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -4555,10 +4555,10 @@
         <v>45.7</v>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -4578,10 +4578,10 @@
         <v>45.5</v>
       </c>
       <c r="F183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -4601,10 +4601,10 @@
         <v>45.6</v>
       </c>
       <c r="F184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -4624,10 +4624,10 @@
         <v>45.9</v>
       </c>
       <c r="F185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -4647,10 +4647,10 @@
         <v>46.3</v>
       </c>
       <c r="F186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="G268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -6582,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -6763,10 +6763,10 @@
         <v>45.8</v>
       </c>
       <c r="F278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -6786,10 +6786,10 @@
         <v>46.1</v>
       </c>
       <c r="F279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -6855,10 +6855,10 @@
         <v>45.9</v>
       </c>
       <c r="F282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -6878,10 +6878,10 @@
         <v>45.8</v>
       </c>
       <c r="F283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -6901,7 +6901,7 @@
         <v>45.8</v>
       </c>
       <c r="F284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -6924,7 +6924,7 @@
         <v>45.9</v>
       </c>
       <c r="F285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -6947,7 +6947,7 @@
         <v>45.8</v>
       </c>
       <c r="F286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -6970,7 +6970,7 @@
         <v>45.7</v>
       </c>
       <c r="F287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -6993,7 +6993,7 @@
         <v>45.5</v>
       </c>
       <c r="F288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -7016,7 +7016,7 @@
         <v>45.5</v>
       </c>
       <c r="F289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -7039,7 +7039,7 @@
         <v>45.4</v>
       </c>
       <c r="F290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -7062,7 +7062,7 @@
         <v>45.5</v>
       </c>
       <c r="F291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -7085,7 +7085,7 @@
         <v>45.4</v>
       </c>
       <c r="F292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -7108,7 +7108,7 @@
         <v>45.5</v>
       </c>
       <c r="F293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -7131,7 +7131,7 @@
         <v>45.2</v>
       </c>
       <c r="F294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -7154,7 +7154,7 @@
         <v>43.9</v>
       </c>
       <c r="F295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -7384,7 +7384,7 @@
         <v>44.1</v>
       </c>
       <c r="F305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -7430,7 +7430,7 @@
         <v>44.2</v>
       </c>
       <c r="F307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -7453,7 +7453,7 @@
         <v>44</v>
       </c>
       <c r="F308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -7476,7 +7476,7 @@
         <v>44.2</v>
       </c>
       <c r="F309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -7499,7 +7499,7 @@
         <v>44.6</v>
       </c>
       <c r="F310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -7545,7 +7545,7 @@
         <v>44.2</v>
       </c>
       <c r="F312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -7591,7 +7591,7 @@
         <v>44</v>
       </c>
       <c r="F314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -7637,7 +7637,7 @@
         <v>44.7</v>
       </c>
       <c r="F316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -8242,6 +8242,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>